--- a/biology/Botanique/Crotalaria_incana/Crotalaria_incana.xlsx
+++ b/biology/Botanique/Crotalaria_incana/Crotalaria_incana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Crotalaria incana, la crotalaire effilée ou chanvre du Bengale, est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire des régions tropicales.
@@ -516,8 +528,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (13 avril 2022)[1]
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (13 avril 2022)
 Chrysocalyx schimperi A.Rich.
 Crotalaria affinis DC.
 Crotalaria criocaula S. Schauer
@@ -529,9 +546,43 @@
 Crotalaria picensis Phil.
 Crotalaria radiata Merr.
 Crotalaria schimperi A.Rich.
-Lupinus rotundifolius Sesse &amp; Moc.
-Sous-espèces
-Selon NCBI  (13 avril 2022)[2] :
+Lupinus rotundifolius Sesse &amp; Moc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Crotalaria_incana</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crotalaria_incana</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (13 avril 2022) :
 Crotalaria incana subsp. purpurascens (Lam.) Milne-Redh., 1961
 </t>
         </is>
